--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.29679832856509</v>
+        <v>0.3907793333333334</v>
       </c>
       <c r="H2">
-        <v>0.29679832856509</v>
+        <v>1.172338</v>
       </c>
       <c r="I2">
-        <v>0.2533875075935505</v>
+        <v>0.240538207054355</v>
       </c>
       <c r="J2">
-        <v>0.2533875075935505</v>
+        <v>0.2555286828896583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.245614975009</v>
+        <v>30.93277266666666</v>
       </c>
       <c r="N2">
-        <v>24.245614975009</v>
+        <v>92.79831799999999</v>
       </c>
       <c r="O2">
-        <v>0.1546558097996621</v>
+        <v>0.1605730793731885</v>
       </c>
       <c r="P2">
-        <v>0.1546558097996621</v>
+        <v>0.1647388399493432</v>
       </c>
       <c r="Q2">
-        <v>7.196057999615388</v>
+        <v>12.08788828083156</v>
       </c>
       <c r="R2">
-        <v>7.196057999615388</v>
+        <v>108.790994527484</v>
       </c>
       <c r="S2">
-        <v>0.03918785017999857</v>
+        <v>0.03862396061362339</v>
       </c>
       <c r="T2">
-        <v>0.03918785017999857</v>
+        <v>0.04209549879302589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.29679832856509</v>
+        <v>0.3907793333333334</v>
       </c>
       <c r="H3">
-        <v>0.29679832856509</v>
+        <v>1.172338</v>
       </c>
       <c r="I3">
-        <v>0.2533875075935505</v>
+        <v>0.240538207054355</v>
       </c>
       <c r="J3">
-        <v>0.2533875075935505</v>
+        <v>0.2555286828896583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.22381066061677</v>
+        <v>2.595096</v>
       </c>
       <c r="N3">
-        <v>2.22381066061677</v>
+        <v>7.785288</v>
       </c>
       <c r="O3">
-        <v>0.01418504908674441</v>
+        <v>0.01347123196744936</v>
       </c>
       <c r="P3">
-        <v>0.01418504908674441</v>
+        <v>0.01382071724394339</v>
       </c>
       <c r="Q3">
-        <v>0.6600232871162859</v>
+        <v>1.014109884816</v>
       </c>
       <c r="R3">
-        <v>0.6600232871162859</v>
+        <v>9.126988963344001</v>
       </c>
       <c r="S3">
-        <v>0.003594314233182335</v>
+        <v>0.003240345984263582</v>
       </c>
       <c r="T3">
-        <v>0.003594314233182335</v>
+        <v>0.003531589673935243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.29679832856509</v>
+        <v>0.3907793333333334</v>
       </c>
       <c r="H4">
-        <v>0.29679832856509</v>
+        <v>1.172338</v>
       </c>
       <c r="I4">
-        <v>0.2533875075935505</v>
+        <v>0.240538207054355</v>
       </c>
       <c r="J4">
-        <v>0.2533875075935505</v>
+        <v>0.2555286828896583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.6127914422118</v>
+        <v>79.25187199999999</v>
       </c>
       <c r="N4">
-        <v>54.6127914422118</v>
+        <v>237.755616</v>
       </c>
       <c r="O4">
-        <v>0.3483593010373697</v>
+        <v>0.4113991742758669</v>
       </c>
       <c r="P4">
-        <v>0.3483593010373697</v>
+        <v>0.4220721368169787</v>
       </c>
       <c r="Q4">
-        <v>16.20898521832231</v>
+        <v>30.96999370557867</v>
       </c>
       <c r="R4">
-        <v>16.20898521832231</v>
+        <v>278.729943350208</v>
       </c>
       <c r="S4">
-        <v>0.08826989503689046</v>
+        <v>0.09895721976395914</v>
       </c>
       <c r="T4">
-        <v>0.08826989503689046</v>
+        <v>0.1078515372052662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.29679832856509</v>
+        <v>0.3907793333333334</v>
       </c>
       <c r="H5">
-        <v>0.29679832856509</v>
+        <v>1.172338</v>
       </c>
       <c r="I5">
-        <v>0.2533875075935505</v>
+        <v>0.240538207054355</v>
       </c>
       <c r="J5">
-        <v>0.2533875075935505</v>
+        <v>0.2555286828896583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.0522743371954</v>
+        <v>65.246217</v>
       </c>
       <c r="N5">
-        <v>65.0522743371954</v>
+        <v>195.738651</v>
       </c>
       <c r="O5">
-        <v>0.4149497621445666</v>
+        <v>0.3386953408296025</v>
       </c>
       <c r="P5">
-        <v>0.4149497621445666</v>
+        <v>0.3474821418529304</v>
       </c>
       <c r="Q5">
-        <v>19.30740629263729</v>
+        <v>25.496873181782</v>
       </c>
       <c r="R5">
-        <v>19.30740629263729</v>
+        <v>229.471858636038</v>
       </c>
       <c r="S5">
-        <v>0.1051430860063483</v>
+        <v>0.08146917002081627</v>
       </c>
       <c r="T5">
-        <v>0.1051430860063483</v>
+        <v>0.08879165403535672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.29679832856509</v>
+        <v>0.3907793333333334</v>
       </c>
       <c r="H6">
-        <v>0.29679832856509</v>
+        <v>1.172338</v>
       </c>
       <c r="I6">
-        <v>0.2533875075935505</v>
+        <v>0.240538207054355</v>
       </c>
       <c r="J6">
-        <v>0.2533875075935505</v>
+        <v>0.2555286828896583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.6369548462893</v>
+        <v>14.6138845</v>
       </c>
       <c r="N6">
-        <v>10.6369548462893</v>
+        <v>29.227769</v>
       </c>
       <c r="O6">
-        <v>0.06785007793165702</v>
+        <v>0.07586117355389271</v>
       </c>
       <c r="P6">
-        <v>0.06785007793165702</v>
+        <v>0.05188616413680445</v>
       </c>
       <c r="Q6">
-        <v>3.157030419400998</v>
+        <v>5.710804042320334</v>
       </c>
       <c r="R6">
-        <v>3.157030419400998</v>
+        <v>34.26482425392201</v>
       </c>
       <c r="S6">
-        <v>0.01719236213713074</v>
+        <v>0.01824751067169261</v>
       </c>
       <c r="T6">
-        <v>0.01719236213713074</v>
+        <v>0.01325840318207427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.651628871708973</v>
+        <v>0.8221213333333334</v>
       </c>
       <c r="H7">
-        <v>0.651628871708973</v>
+        <v>2.466364</v>
       </c>
       <c r="I7">
-        <v>0.5563192234828349</v>
+        <v>0.5060441395769882</v>
       </c>
       <c r="J7">
-        <v>0.5563192234828349</v>
+        <v>0.5375810938879991</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.245614975009</v>
+        <v>30.93277266666666</v>
       </c>
       <c r="N7">
-        <v>24.245614975009</v>
+        <v>92.79831799999999</v>
       </c>
       <c r="O7">
-        <v>0.1546558097996621</v>
+        <v>0.1605730793731885</v>
       </c>
       <c r="P7">
-        <v>0.1546558097996621</v>
+        <v>0.1647388399493432</v>
       </c>
       <c r="Q7">
-        <v>15.79914273005529</v>
+        <v>25.43049230841689</v>
       </c>
       <c r="R7">
-        <v>15.79914273005529</v>
+        <v>228.874430775752</v>
       </c>
       <c r="S7">
-        <v>0.08603800001485701</v>
+        <v>0.08125706579063259</v>
       </c>
       <c r="T7">
-        <v>0.08603800001485701</v>
+        <v>0.08856048578580793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.651628871708973</v>
+        <v>0.8221213333333334</v>
       </c>
       <c r="H8">
-        <v>0.651628871708973</v>
+        <v>2.466364</v>
       </c>
       <c r="I8">
-        <v>0.5563192234828349</v>
+        <v>0.5060441395769882</v>
       </c>
       <c r="J8">
-        <v>0.5563192234828349</v>
+        <v>0.5375810938879991</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.22381066061677</v>
+        <v>2.595096</v>
       </c>
       <c r="N8">
-        <v>2.22381066061677</v>
+        <v>7.785288</v>
       </c>
       <c r="O8">
-        <v>0.01418504908674441</v>
+        <v>0.01347123196744936</v>
       </c>
       <c r="P8">
-        <v>0.01418504908674441</v>
+        <v>0.01382071724394339</v>
       </c>
       <c r="Q8">
-        <v>1.449099231672092</v>
+        <v>2.133483783648</v>
       </c>
       <c r="R8">
-        <v>1.449099231672092</v>
+        <v>19.201354052832</v>
       </c>
       <c r="S8">
-        <v>0.007891415493003547</v>
+        <v>0.006817037990009931</v>
       </c>
       <c r="T8">
-        <v>0.007891415493003547</v>
+        <v>0.00742975629431582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.651628871708973</v>
+        <v>0.8221213333333334</v>
       </c>
       <c r="H9">
-        <v>0.651628871708973</v>
+        <v>2.466364</v>
       </c>
       <c r="I9">
-        <v>0.5563192234828349</v>
+        <v>0.5060441395769882</v>
       </c>
       <c r="J9">
-        <v>0.5563192234828349</v>
+        <v>0.5375810938879991</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.6127914422118</v>
+        <v>79.25187199999999</v>
       </c>
       <c r="N9">
-        <v>54.6127914422118</v>
+        <v>237.755616</v>
       </c>
       <c r="O9">
-        <v>0.3483593010373697</v>
+        <v>0.4113991742758669</v>
       </c>
       <c r="P9">
-        <v>0.3483593010373697</v>
+        <v>0.4220721368169787</v>
       </c>
       <c r="Q9">
-        <v>35.58727166836593</v>
+        <v>65.15465467780267</v>
       </c>
       <c r="R9">
-        <v>35.58727166836593</v>
+        <v>586.3918921002239</v>
       </c>
       <c r="S9">
-        <v>0.1937989758461326</v>
+        <v>0.2081861411691145</v>
       </c>
       <c r="T9">
-        <v>0.1937989758461326</v>
+        <v>0.2268980010097166</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.651628871708973</v>
+        <v>0.8221213333333334</v>
       </c>
       <c r="H10">
-        <v>0.651628871708973</v>
+        <v>2.466364</v>
       </c>
       <c r="I10">
-        <v>0.5563192234828349</v>
+        <v>0.5060441395769882</v>
       </c>
       <c r="J10">
-        <v>0.5563192234828349</v>
+        <v>0.5375810938879991</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.0522743371954</v>
+        <v>65.246217</v>
       </c>
       <c r="N10">
-        <v>65.0522743371954</v>
+        <v>195.738651</v>
       </c>
       <c r="O10">
-        <v>0.4149497621445666</v>
+        <v>0.3386953408296025</v>
       </c>
       <c r="P10">
-        <v>0.4149497621445666</v>
+        <v>0.3474821418529304</v>
       </c>
       <c r="Q10">
-        <v>42.38994012844922</v>
+        <v>53.640306914996</v>
       </c>
       <c r="R10">
-        <v>42.38994012844922</v>
+        <v>482.762762234964</v>
       </c>
       <c r="S10">
-        <v>0.2308445294606524</v>
+        <v>0.171394792328851</v>
       </c>
       <c r="T10">
-        <v>0.2308445294606524</v>
+        <v>0.1867998299238432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.651628871708973</v>
+        <v>0.8221213333333334</v>
       </c>
       <c r="H11">
-        <v>0.651628871708973</v>
+        <v>2.466364</v>
       </c>
       <c r="I11">
-        <v>0.5563192234828349</v>
+        <v>0.5060441395769882</v>
       </c>
       <c r="J11">
-        <v>0.5563192234828349</v>
+        <v>0.5375810938879991</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.6369548462893</v>
+        <v>14.6138845</v>
       </c>
       <c r="N11">
-        <v>10.6369548462893</v>
+        <v>29.227769</v>
       </c>
       <c r="O11">
-        <v>0.06785007793165702</v>
+        <v>0.07586117355389271</v>
       </c>
       <c r="P11">
-        <v>0.06785007793165702</v>
+        <v>0.05188616413680445</v>
       </c>
       <c r="Q11">
-        <v>6.931346884906788</v>
+        <v>12.01438621031934</v>
       </c>
       <c r="R11">
-        <v>6.931346884906788</v>
+        <v>72.08631726191601</v>
       </c>
       <c r="S11">
-        <v>0.03774630266818927</v>
+        <v>0.03838910229838021</v>
       </c>
       <c r="T11">
-        <v>0.03774630266818927</v>
+        <v>0.02789302087431561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.222894667105339</v>
+        <v>0.1257833333333333</v>
       </c>
       <c r="H12">
-        <v>0.222894667105339</v>
+        <v>0.37735</v>
       </c>
       <c r="I12">
-        <v>0.1902932689236146</v>
+        <v>0.07742399583734456</v>
       </c>
       <c r="J12">
-        <v>0.1902932689236146</v>
+        <v>0.08224910263798711</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.245614975009</v>
+        <v>30.93277266666666</v>
       </c>
       <c r="N12">
-        <v>24.245614975009</v>
+        <v>92.79831799999999</v>
       </c>
       <c r="O12">
-        <v>0.1546558097996621</v>
+        <v>0.1605730793731885</v>
       </c>
       <c r="P12">
-        <v>0.1546558097996621</v>
+        <v>0.1647388399493432</v>
       </c>
       <c r="Q12">
-        <v>5.404218278618854</v>
+        <v>3.890827255255555</v>
       </c>
       <c r="R12">
-        <v>5.404218278618854</v>
+        <v>35.01744529729999</v>
       </c>
       <c r="S12">
-        <v>0.02942995960480649</v>
+        <v>0.01243220942897934</v>
       </c>
       <c r="T12">
-        <v>0.02942995960480649</v>
+        <v>0.01354962175545646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.222894667105339</v>
+        <v>0.1257833333333333</v>
       </c>
       <c r="H13">
-        <v>0.222894667105339</v>
+        <v>0.37735</v>
       </c>
       <c r="I13">
-        <v>0.1902932689236146</v>
+        <v>0.07742399583734456</v>
       </c>
       <c r="J13">
-        <v>0.1902932689236146</v>
+        <v>0.08224910263798711</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.22381066061677</v>
+        <v>2.595096</v>
       </c>
       <c r="N13">
-        <v>2.22381066061677</v>
+        <v>7.785288</v>
       </c>
       <c r="O13">
-        <v>0.01418504908674441</v>
+        <v>0.01347123196744936</v>
       </c>
       <c r="P13">
-        <v>0.01418504908674441</v>
+        <v>0.01382071724394339</v>
       </c>
       <c r="Q13">
-        <v>0.495675536903479</v>
+        <v>0.3264198252</v>
       </c>
       <c r="R13">
-        <v>0.495675536903479</v>
+        <v>2.9377784268</v>
       </c>
       <c r="S13">
-        <v>0.002699319360558528</v>
+        <v>0.001042996607771703</v>
       </c>
       <c r="T13">
-        <v>0.002699319360558528</v>
+        <v>0.001136741591127698</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.222894667105339</v>
+        <v>0.1257833333333333</v>
       </c>
       <c r="H14">
-        <v>0.222894667105339</v>
+        <v>0.37735</v>
       </c>
       <c r="I14">
-        <v>0.1902932689236146</v>
+        <v>0.07742399583734456</v>
       </c>
       <c r="J14">
-        <v>0.1902932689236146</v>
+        <v>0.08224910263798711</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.6127914422118</v>
+        <v>79.25187199999999</v>
       </c>
       <c r="N14">
-        <v>54.6127914422118</v>
+        <v>237.755616</v>
       </c>
       <c r="O14">
-        <v>0.3483593010373697</v>
+        <v>0.4113991742758669</v>
       </c>
       <c r="P14">
-        <v>0.3483593010373697</v>
+        <v>0.4220721368169787</v>
       </c>
       <c r="Q14">
-        <v>12.17289996820511</v>
+        <v>9.968564633066665</v>
       </c>
       <c r="R14">
-        <v>12.17289996820511</v>
+        <v>89.71708169759998</v>
       </c>
       <c r="S14">
-        <v>0.06629043015434663</v>
+        <v>0.03185216795662171</v>
       </c>
       <c r="T14">
-        <v>0.06629043015434663</v>
+        <v>0.03471505450169422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.222894667105339</v>
+        <v>0.1257833333333333</v>
       </c>
       <c r="H15">
-        <v>0.222894667105339</v>
+        <v>0.37735</v>
       </c>
       <c r="I15">
-        <v>0.1902932689236146</v>
+        <v>0.07742399583734456</v>
       </c>
       <c r="J15">
-        <v>0.1902932689236146</v>
+        <v>0.08224910263798711</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.0522743371954</v>
+        <v>65.246217</v>
       </c>
       <c r="N15">
-        <v>65.0522743371954</v>
+        <v>195.738651</v>
       </c>
       <c r="O15">
-        <v>0.4149497621445666</v>
+        <v>0.3386953408296025</v>
       </c>
       <c r="P15">
-        <v>0.4149497621445666</v>
+        <v>0.3474821418529304</v>
       </c>
       <c r="Q15">
-        <v>14.49980503283436</v>
+        <v>8.20688666165</v>
       </c>
       <c r="R15">
-        <v>14.49980503283436</v>
+        <v>73.86197995485</v>
       </c>
       <c r="S15">
-        <v>0.07896214667756594</v>
+        <v>0.02622314665851914</v>
       </c>
       <c r="T15">
-        <v>0.07896214667756594</v>
+        <v>0.02858009435012927</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1257833333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.37735</v>
+      </c>
+      <c r="I16">
+        <v>0.07742399583734456</v>
+      </c>
+      <c r="J16">
+        <v>0.08224910263798711</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.6138845</v>
+      </c>
+      <c r="N16">
+        <v>29.227769</v>
+      </c>
+      <c r="O16">
+        <v>0.07586117355389271</v>
+      </c>
+      <c r="P16">
+        <v>0.05188616413680445</v>
+      </c>
+      <c r="Q16">
+        <v>1.838183105358334</v>
+      </c>
+      <c r="R16">
+        <v>11.02909863215</v>
+      </c>
+      <c r="S16">
+        <v>0.005873475185452663</v>
+      </c>
+      <c r="T16">
+        <v>0.004267590439579475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.28592</v>
+      </c>
+      <c r="H17">
+        <v>0.57184</v>
+      </c>
+      <c r="I17">
+        <v>0.1759936575313123</v>
+      </c>
+      <c r="J17">
+        <v>0.1246411205843555</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.93277266666666</v>
+      </c>
+      <c r="N17">
+        <v>92.79831799999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1605730793731885</v>
+      </c>
+      <c r="P17">
+        <v>0.1647388399493432</v>
+      </c>
+      <c r="Q17">
+        <v>8.844298360853333</v>
+      </c>
+      <c r="R17">
+        <v>53.06579016512</v>
+      </c>
+      <c r="S17">
+        <v>0.02825984353995315</v>
+      </c>
+      <c r="T17">
+        <v>0.02053323361505293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.28592</v>
+      </c>
+      <c r="H18">
+        <v>0.57184</v>
+      </c>
+      <c r="I18">
+        <v>0.1759936575313123</v>
+      </c>
+      <c r="J18">
+        <v>0.1246411205843555</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.595096</v>
+      </c>
+      <c r="N18">
+        <v>7.785288</v>
+      </c>
+      <c r="O18">
+        <v>0.01347123196744936</v>
+      </c>
+      <c r="P18">
+        <v>0.01382071724394339</v>
+      </c>
+      <c r="Q18">
+        <v>0.7419898483200001</v>
+      </c>
+      <c r="R18">
+        <v>4.451939089920001</v>
+      </c>
+      <c r="S18">
+        <v>0.002370851385404149</v>
+      </c>
+      <c r="T18">
+        <v>0.00172262968456463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.28592</v>
+      </c>
+      <c r="H19">
+        <v>0.57184</v>
+      </c>
+      <c r="I19">
+        <v>0.1759936575313123</v>
+      </c>
+      <c r="J19">
+        <v>0.1246411205843555</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>79.25187199999999</v>
+      </c>
+      <c r="N19">
+        <v>237.755616</v>
+      </c>
+      <c r="O19">
+        <v>0.4113991742758669</v>
+      </c>
+      <c r="P19">
+        <v>0.4220721368169787</v>
+      </c>
+      <c r="Q19">
+        <v>22.65969524224</v>
+      </c>
+      <c r="R19">
+        <v>135.95817145344</v>
+      </c>
+      <c r="S19">
+        <v>0.07240364538617157</v>
+      </c>
+      <c r="T19">
+        <v>0.05260754410030164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.222894667105339</v>
-      </c>
-      <c r="H16">
-        <v>0.222894667105339</v>
-      </c>
-      <c r="I16">
-        <v>0.1902932689236146</v>
-      </c>
-      <c r="J16">
-        <v>0.1902932689236146</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.6369548462893</v>
-      </c>
-      <c r="N16">
-        <v>10.6369548462893</v>
-      </c>
-      <c r="O16">
-        <v>0.06785007793165702</v>
-      </c>
-      <c r="P16">
-        <v>0.06785007793165702</v>
-      </c>
-      <c r="Q16">
-        <v>2.370920509478176</v>
-      </c>
-      <c r="R16">
-        <v>2.370920509478176</v>
-      </c>
-      <c r="S16">
-        <v>0.01291141312633702</v>
-      </c>
-      <c r="T16">
-        <v>0.01291141312633702</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.28592</v>
+      </c>
+      <c r="H20">
+        <v>0.57184</v>
+      </c>
+      <c r="I20">
+        <v>0.1759936575313123</v>
+      </c>
+      <c r="J20">
+        <v>0.1246411205843555</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>65.246217</v>
+      </c>
+      <c r="N20">
+        <v>195.738651</v>
+      </c>
+      <c r="O20">
+        <v>0.3386953408296025</v>
+      </c>
+      <c r="P20">
+        <v>0.3474821418529304</v>
+      </c>
+      <c r="Q20">
+        <v>18.65519836464</v>
+      </c>
+      <c r="R20">
+        <v>111.93119018784</v>
+      </c>
+      <c r="S20">
+        <v>0.05960823182141615</v>
+      </c>
+      <c r="T20">
+        <v>0.04331056354360123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.28592</v>
+      </c>
+      <c r="H21">
+        <v>0.57184</v>
+      </c>
+      <c r="I21">
+        <v>0.1759936575313123</v>
+      </c>
+      <c r="J21">
+        <v>0.1246411205843555</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.6138845</v>
+      </c>
+      <c r="N21">
+        <v>29.227769</v>
+      </c>
+      <c r="O21">
+        <v>0.07586117355389271</v>
+      </c>
+      <c r="P21">
+        <v>0.05188616413680445</v>
+      </c>
+      <c r="Q21">
+        <v>4.178401856240001</v>
+      </c>
+      <c r="R21">
+        <v>16.71360742496</v>
+      </c>
+      <c r="S21">
+        <v>0.01335108539836724</v>
+      </c>
+      <c r="T21">
+        <v>0.006467149640835106</v>
       </c>
     </row>
   </sheetData>
